--- a/level 3/hackerrank - phase 3-algorithms-basics.xlsx
+++ b/level 3/hackerrank - phase 3-algorithms-basics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="62805" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="713"/>
+    <workbookView xWindow="63765" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="713"/>
   </bookViews>
   <sheets>
     <sheet name="level 3 - algorithms-basics" sheetId="14" r:id="rId1"/>
@@ -1295,7 +1295,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="8">
-        <f>SUM(C13:F13)</f>
+        <f t="shared" ref="G13:G44" si="1">SUM(C13:F13)</f>
         <v>0</v>
       </c>
       <c r="I13" s="13" t="s">
@@ -1314,7 +1314,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="8">
-        <f>SUM(C14:F14)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="13" t="s">
@@ -1333,7 +1333,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="8">
-        <f>SUM(C15:F15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" s="13" t="s">
@@ -1352,7 +1352,7 @@
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="8">
-        <f>SUM(C16:F16)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I16" s="13" t="s">
@@ -1371,7 +1371,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="8">
-        <f>SUM(C17:F17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17" s="13" t="s">
@@ -1390,7 +1390,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="8">
-        <f>SUM(C18:F18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="13" t="s">
@@ -1409,7 +1409,7 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="8">
-        <f>SUM(C19:F19)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="13" t="s">
@@ -1428,7 +1428,7 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="8">
-        <f>SUM(C20:F20)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20" s="13" t="s">
@@ -1447,7 +1447,7 @@
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="8">
-        <f>SUM(C21:F21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="13" t="s">
@@ -1466,7 +1466,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="8">
-        <f>SUM(C22:F22)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I22" s="13" t="s">
@@ -1485,7 +1485,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="8">
-        <f>SUM(C23:F23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I23" s="13" t="s">
@@ -1504,7 +1504,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="8">
-        <f>SUM(C24:F24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I24" s="13" t="s">
@@ -1523,7 +1523,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="8">
-        <f>SUM(C25:F25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I25" s="13" t="s">
@@ -1542,7 +1542,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="8">
-        <f>SUM(C26:F26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
@@ -1561,7 +1561,7 @@
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="8">
-        <f>SUM(C27:F27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I27" s="13" t="s">
@@ -1580,7 +1580,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="8">
-        <f>SUM(C28:F28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I28" s="13" t="s">
@@ -1599,7 +1599,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="8">
-        <f>SUM(C29:F29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I29" s="13" t="s">
@@ -1618,7 +1618,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="8">
-        <f>SUM(C30:F30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I30" s="13" t="s">
@@ -1637,7 +1637,7 @@
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="8">
-        <f>SUM(C31:F31)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I31" s="13" t="s">
@@ -1656,7 +1656,7 @@
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="8">
-        <f>SUM(C32:F32)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I32" s="13" t="s">
@@ -1675,7 +1675,7 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="8">
-        <f>SUM(C33:F33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I33" s="13" t="s">
@@ -1694,7 +1694,7 @@
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="8">
-        <f>SUM(C34:F34)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I34" s="13" t="s">
@@ -1713,7 +1713,7 @@
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="8">
-        <f>SUM(C35:F35)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I35" s="13" t="s">
@@ -1732,7 +1732,7 @@
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="8">
-        <f>SUM(C36:F36)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I36" s="13" t="s">
@@ -1751,7 +1751,7 @@
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="8">
-        <f>SUM(C37:F37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I37" s="13" t="s">
@@ -1770,7 +1770,7 @@
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="8">
-        <f>SUM(C38:F38)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I38" s="13" t="s">
@@ -1789,7 +1789,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="8">
-        <f>SUM(C39:F39)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I39" s="13" t="s">
@@ -1808,7 +1808,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="8">
-        <f>SUM(C40:F40)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I40" s="13" t="s">
@@ -1827,7 +1827,7 @@
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="8">
-        <f>SUM(C41:F41)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I41" s="13" t="s">
@@ -1846,7 +1846,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="8">
-        <f>SUM(C42:F42)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I42" s="13" t="s">
@@ -1865,7 +1865,7 @@
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
       <c r="G43" s="8">
-        <f>SUM(C43:F43)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I43" s="13" t="s">
@@ -1884,7 +1884,7 @@
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="8">
-        <f>SUM(C44:F44)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I44" s="13" t="s">
@@ -1903,7 +1903,7 @@
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="8">
-        <f>SUM(C45:F45)</f>
+        <f t="shared" ref="G45:G76" si="2">SUM(C45:F45)</f>
         <v>0</v>
       </c>
       <c r="I45" s="13" t="s">
@@ -1922,7 +1922,7 @@
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="8">
-        <f>SUM(C46:F46)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I46" s="13" t="s">
@@ -1941,7 +1941,7 @@
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="8">
-        <f>SUM(C47:F47)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I47" s="13" t="s">
@@ -1960,7 +1960,7 @@
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="8">
-        <f>SUM(C48:F48)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I48" s="13" t="s">
@@ -1979,7 +1979,7 @@
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="8">
-        <f>SUM(C49:F49)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I49" s="13" t="s">
@@ -1998,7 +1998,7 @@
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="8">
-        <f>SUM(C50:F50)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I50" s="13" t="s">
@@ -2017,7 +2017,7 @@
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="8">
-        <f>SUM(C51:F51)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I51" s="13" t="s">
@@ -2036,7 +2036,7 @@
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="8">
-        <f>SUM(C52:F52)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I52" s="13" t="s">
@@ -2055,7 +2055,7 @@
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="8">
-        <f>SUM(C53:F53)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I53" s="13" t="s">
@@ -2074,7 +2074,7 @@
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="8">
-        <f>SUM(C54:F54)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I54" s="13" t="s">
@@ -2093,7 +2093,7 @@
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="8">
-        <f>SUM(C55:F55)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I55" s="13" t="s">
@@ -2112,7 +2112,7 @@
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="8">
-        <f>SUM(C56:F56)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I56" s="13" t="s">
@@ -2131,7 +2131,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="8">
-        <f>SUM(C57:F57)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I57" s="13" t="s">
@@ -2150,7 +2150,7 @@
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="8">
-        <f>SUM(C58:F58)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I58" s="13" t="s">
@@ -2169,7 +2169,7 @@
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="8">
-        <f>SUM(C59:F59)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I59" s="13" t="s">
@@ -2188,7 +2188,7 @@
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="8">
-        <f>SUM(C60:F60)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I60" s="13" t="s">
@@ -2207,7 +2207,7 @@
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="8">
-        <f>SUM(C61:F61)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I61" s="13" t="s">
@@ -2226,7 +2226,7 @@
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
       <c r="G62" s="8">
-        <f>SUM(C62:F62)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I62" s="13" t="s">
@@ -2245,7 +2245,7 @@
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="8">
-        <f>SUM(C63:F63)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I63" s="13" t="s">
@@ -2264,7 +2264,7 @@
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
       <c r="G64" s="8">
-        <f>SUM(C64:F64)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I64" s="13" t="s">
@@ -2423,7 +2423,7 @@
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="8">
-        <f t="shared" ref="G72:G120" si="1">SUM(C72:F72)</f>
+        <f t="shared" ref="G72:G120" si="3">SUM(C72:F72)</f>
         <v>0</v>
       </c>
       <c r="H72" s="3"/>
@@ -2443,7 +2443,7 @@
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
       <c r="G73" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H73" s="3"/>
@@ -2463,7 +2463,7 @@
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H74" s="3"/>
@@ -2483,7 +2483,7 @@
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H75" s="3"/>
@@ -2503,7 +2503,7 @@
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
       <c r="G76" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H76" s="3"/>
@@ -2523,7 +2523,7 @@
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H77" s="3"/>
@@ -2543,7 +2543,7 @@
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H78" s="3"/>
@@ -2563,7 +2563,7 @@
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H79" s="3"/>
@@ -2583,7 +2583,7 @@
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H80" s="3"/>
@@ -2603,7 +2603,7 @@
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H81" s="3"/>
@@ -2623,7 +2623,7 @@
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
       <c r="G82" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H82" s="3"/>
@@ -2643,7 +2643,7 @@
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
       <c r="G83" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H83" s="3"/>
@@ -2663,7 +2663,7 @@
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
       <c r="G84" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H84" s="3"/>
@@ -2683,7 +2683,7 @@
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H85" s="3"/>
@@ -2703,7 +2703,7 @@
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
       <c r="G86" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H86" s="3"/>
@@ -2723,7 +2723,7 @@
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
       <c r="G87" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H87" s="3"/>
@@ -2743,7 +2743,7 @@
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H88" s="3"/>
@@ -2763,7 +2763,7 @@
       <c r="E89" s="10"/>
       <c r="F89" s="10"/>
       <c r="G89" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H89" s="3"/>
@@ -2783,7 +2783,7 @@
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
       <c r="G90" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H90" s="3"/>
@@ -2803,7 +2803,7 @@
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
       <c r="G91" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H91" s="3"/>
@@ -2823,7 +2823,7 @@
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
       <c r="G92" s="8">
-        <f t="shared" ref="G92:G97" si="2">SUM(C92:F92)</f>
+        <f t="shared" ref="G92:G97" si="4">SUM(C92:F92)</f>
         <v>0</v>
       </c>
       <c r="I92" s="13" t="s">
@@ -2842,7 +2842,7 @@
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
       <c r="G93" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I93" s="13" t="s">
@@ -2861,7 +2861,7 @@
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
       <c r="G94" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I94" s="13" t="s">
@@ -2880,7 +2880,7 @@
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
       <c r="G95" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I95" s="13" t="s">
@@ -2899,7 +2899,7 @@
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
       <c r="G96" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I96" s="13" t="s">
@@ -2918,7 +2918,7 @@
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
       <c r="G97" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I97" s="13" t="s">
@@ -2937,7 +2937,7 @@
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
       <c r="G98" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I98" s="13" t="s">
@@ -2956,7 +2956,7 @@
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
       <c r="G99" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I99" s="13" t="s">
@@ -2975,7 +2975,7 @@
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
       <c r="G100" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I100" s="13" t="s">
@@ -2994,7 +2994,7 @@
       <c r="E101" s="10"/>
       <c r="F101" s="10"/>
       <c r="G101" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I101" s="13" t="s">
@@ -3013,7 +3013,7 @@
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
       <c r="G102" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I102" s="13" t="s">
@@ -3032,7 +3032,7 @@
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
       <c r="G103" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I103" s="13" t="s">
@@ -3051,7 +3051,7 @@
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
       <c r="G104" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I104" s="13" t="s">
@@ -3070,7 +3070,7 @@
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
       <c r="G105" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I105" s="13" t="s">
@@ -3089,7 +3089,7 @@
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
       <c r="G106" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I106" s="13" t="s">
@@ -3108,7 +3108,7 @@
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
       <c r="G107" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I107" s="13" t="s">
@@ -3127,7 +3127,7 @@
       <c r="E108" s="10"/>
       <c r="F108" s="10"/>
       <c r="G108" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I108" s="13" t="s">
@@ -3146,7 +3146,7 @@
       <c r="E109" s="10"/>
       <c r="F109" s="10"/>
       <c r="G109" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I109" s="13" t="s">
@@ -3165,7 +3165,7 @@
       <c r="E110" s="10"/>
       <c r="F110" s="10"/>
       <c r="G110" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I110" s="13" t="s">
@@ -3184,7 +3184,7 @@
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
       <c r="G111" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I111" s="13" t="s">
@@ -3203,7 +3203,7 @@
       <c r="E112" s="10"/>
       <c r="F112" s="10"/>
       <c r="G112" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I112" s="13" t="s">
@@ -3222,7 +3222,7 @@
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
       <c r="G113" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I113" s="13" t="s">
@@ -3241,7 +3241,7 @@
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I114" s="13" t="s">
@@ -3260,7 +3260,7 @@
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
       <c r="G115" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I115" s="13" t="s">
@@ -3279,7 +3279,7 @@
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
       <c r="G116" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I116" s="13" t="s">
@@ -3298,7 +3298,7 @@
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
       <c r="G117" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I117" s="13" t="s">
@@ -3317,7 +3317,7 @@
       <c r="E118" s="10"/>
       <c r="F118" s="10"/>
       <c r="G118" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I118" s="13" t="s">
@@ -3336,7 +3336,7 @@
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
       <c r="G119" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I119" s="13" t="s">
@@ -3355,7 +3355,7 @@
       <c r="E120" s="10"/>
       <c r="F120" s="10"/>
       <c r="G120" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I120" s="13" t="s">
@@ -3374,7 +3374,7 @@
       <c r="E121" s="10"/>
       <c r="F121" s="10"/>
       <c r="G121" s="8">
-        <f t="shared" ref="G121:G129" si="3">SUM(C121:F121)</f>
+        <f t="shared" ref="G121:G129" si="5">SUM(C121:F121)</f>
         <v>0</v>
       </c>
       <c r="I121" s="13" t="s">
@@ -3393,7 +3393,7 @@
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I122" s="13" t="s">
@@ -3412,7 +3412,7 @@
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
       <c r="G123" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I123" s="13" t="s">
@@ -3431,7 +3431,7 @@
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
       <c r="G124" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I124" s="13" t="s">
@@ -3450,7 +3450,7 @@
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
       <c r="G125" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I125" s="13" t="s">
@@ -3469,7 +3469,7 @@
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
       <c r="G126" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I126" s="13" t="s">
@@ -3488,7 +3488,7 @@
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
       <c r="G127" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I127" s="13" t="s">
@@ -3507,7 +3507,7 @@
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
       <c r="G128" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I128" s="13" t="s">
@@ -3526,7 +3526,7 @@
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
       <c r="G129" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I129" s="13" t="s">
@@ -3539,10 +3539,7 @@
       <c r="D130" s="10"/>
       <c r="E130" s="10"/>
       <c r="F130" s="10"/>
-      <c r="G130" s="8">
-        <f t="shared" ref="G130:G137" si="4">SUM(C130:F130)</f>
-        <v>0</v>
-      </c>
+      <c r="G130" s="8"/>
       <c r="I130" s="14"/>
     </row>
     <row r="131" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3551,10 +3548,7 @@
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
-      <c r="G131" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G131" s="8"/>
       <c r="I131" s="14"/>
     </row>
     <row r="132" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3563,10 +3557,7 @@
       <c r="D132" s="10"/>
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
-      <c r="G132" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G132" s="8"/>
       <c r="I132" s="14"/>
     </row>
     <row r="133" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3575,10 +3566,7 @@
       <c r="D133" s="10"/>
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
-      <c r="G133" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G133" s="8"/>
       <c r="I133" s="14"/>
     </row>
     <row r="134" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3587,10 +3575,7 @@
       <c r="D134" s="10"/>
       <c r="E134" s="10"/>
       <c r="F134" s="10"/>
-      <c r="G134" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G134" s="8"/>
     </row>
     <row r="135" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
@@ -3598,10 +3583,7 @@
       <c r="D135" s="10"/>
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
-      <c r="G135" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G135" s="8"/>
     </row>
     <row r="136" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
@@ -3609,10 +3591,7 @@
       <c r="D136" s="10"/>
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
-      <c r="G136" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G136" s="8"/>
     </row>
     <row r="137" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
@@ -3620,10 +3599,7 @@
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
-      <c r="G137" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G137" s="8"/>
     </row>
     <row r="138" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
@@ -3631,10 +3607,7 @@
       <c r="D138" s="10"/>
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
-      <c r="G138" s="8">
-        <f t="shared" ref="G138:G176" si="5">SUM(C138:F138)</f>
-        <v>0</v>
-      </c>
+      <c r="G138" s="8"/>
     </row>
     <row r="139" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
@@ -3642,380 +3615,266 @@
       <c r="D139" s="10"/>
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
-      <c r="G139" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G139" s="8"/>
     </row>
     <row r="140" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
-      <c r="G140" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G140" s="8"/>
     </row>
     <row r="141" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C141" s="10"/>
       <c r="D141" s="10"/>
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
-      <c r="G141" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G141" s="8"/>
     </row>
     <row r="142" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C142" s="10"/>
       <c r="D142" s="10"/>
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
-      <c r="G142" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G142" s="8"/>
     </row>
     <row r="143" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C143" s="10"/>
       <c r="D143" s="10"/>
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
-      <c r="G143" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G143" s="8"/>
     </row>
     <row r="144" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
-      <c r="G144" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G144" s="8"/>
     </row>
     <row r="145" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
-      <c r="G145" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G145" s="8"/>
     </row>
     <row r="146" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C146" s="10"/>
       <c r="D146" s="10"/>
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
-      <c r="G146" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G146" s="8"/>
     </row>
     <row r="147" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C147" s="10"/>
       <c r="D147" s="10"/>
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
-      <c r="G147" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G147" s="8"/>
     </row>
     <row r="148" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C148" s="10"/>
       <c r="D148" s="10"/>
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
-      <c r="G148" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G148" s="8"/>
     </row>
     <row r="149" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
-      <c r="G149" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G149" s="8"/>
     </row>
     <row r="150" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
-      <c r="G150" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G150" s="8"/>
     </row>
     <row r="151" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C151" s="10"/>
       <c r="D151" s="10"/>
       <c r="E151" s="10"/>
       <c r="F151" s="10"/>
-      <c r="G151" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G151" s="8"/>
     </row>
     <row r="152" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
       <c r="E152" s="10"/>
       <c r="F152" s="10"/>
-      <c r="G152" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G152" s="8"/>
     </row>
     <row r="153" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
       <c r="E153" s="10"/>
       <c r="F153" s="10"/>
-      <c r="G153" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G153" s="8"/>
     </row>
     <row r="154" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C154" s="10"/>
       <c r="D154" s="10"/>
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
-      <c r="G154" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G154" s="8"/>
     </row>
     <row r="155" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
-      <c r="G155" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G155" s="8"/>
     </row>
     <row r="156" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C156" s="10"/>
       <c r="D156" s="10"/>
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
-      <c r="G156" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G156" s="8"/>
     </row>
     <row r="157" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C157" s="10"/>
       <c r="D157" s="10"/>
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
-      <c r="G157" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G157" s="8"/>
     </row>
     <row r="158" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C158" s="10"/>
       <c r="D158" s="10"/>
       <c r="E158" s="10"/>
       <c r="F158" s="10"/>
-      <c r="G158" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G158" s="8"/>
     </row>
     <row r="159" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C159" s="10"/>
       <c r="D159" s="10"/>
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
-      <c r="G159" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G159" s="8"/>
     </row>
     <row r="160" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
-      <c r="G160" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G160" s="8"/>
     </row>
     <row r="161" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
-      <c r="G161" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G161" s="8"/>
     </row>
     <row r="162" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
       <c r="E162" s="10"/>
       <c r="F162" s="10"/>
-      <c r="G162" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G162" s="8"/>
     </row>
     <row r="163" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C163" s="10"/>
       <c r="D163" s="10"/>
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
-      <c r="G163" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G163" s="8"/>
     </row>
     <row r="164" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
-      <c r="G164" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G164" s="8"/>
     </row>
     <row r="165" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
       <c r="E165" s="10"/>
       <c r="F165" s="10"/>
-      <c r="G165" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G165" s="8"/>
     </row>
     <row r="166" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
-      <c r="G166" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G166" s="8"/>
     </row>
     <row r="167" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
-      <c r="G167" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G167" s="8"/>
     </row>
     <row r="168" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
       <c r="E168" s="10"/>
       <c r="F168" s="10"/>
-      <c r="G168" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G168" s="8"/>
     </row>
     <row r="169" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
-      <c r="G169" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G169" s="8"/>
     </row>
     <row r="170" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
       <c r="E170" s="10"/>
       <c r="F170" s="10"/>
-      <c r="G170" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G170" s="8"/>
     </row>
     <row r="171" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
-      <c r="G171" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G171" s="8"/>
     </row>
     <row r="172" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
-      <c r="G172" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G172" s="8"/>
     </row>
     <row r="173" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
-      <c r="G173" s="8">
-        <f>SUM(C173:F173)</f>
-        <v>0</v>
-      </c>
+      <c r="G173" s="8"/>
     </row>
     <row r="174" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C174" s="10"/>
       <c r="D174" s="10"/>
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
-      <c r="G174" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G174" s="8"/>
     </row>
     <row r="175" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C175" s="10"/>
       <c r="D175" s="10"/>
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
-      <c r="G175" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G175" s="8"/>
     </row>
     <row r="176" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
       <c r="E176" s="10"/>
       <c r="F176" s="10"/>
-      <c r="G176" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G176" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="9">
